--- a/templates/Lamp 6.xlsx
+++ b/templates/Lamp 6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="9690" windowHeight="6495"/>
@@ -83,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -148,6 +148,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -225,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -258,6 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -980,7 +987,7 @@
     </row>
     <row r="40" spans="2:7" ht="13.5" thickTop="1"/>
     <row r="43" spans="2:7">
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="20" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="16"/>
